--- a/method_cheat_sheet.xlsx
+++ b/method_cheat_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yktkk\Desktop\Programing_practice\AIシステム設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34046215-232E-4E72-A578-B55429E534B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2CC925-FB4A-44BE-A48D-E5EB5DEC2EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分類" sheetId="2" r:id="rId1"/>
@@ -406,13 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目的</t>
-    <rPh sb="0" eb="2">
-      <t>モクテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>異常検知</t>
     <rPh sb="0" eb="4">
       <t>イジョウケンチ</t>
@@ -909,23 +902,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目的
-統計値の優位性を測る</t>
-    <rPh sb="0" eb="2">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>トウケイチ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ユウイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ハカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>独立性の検定</t>
     <rPh sb="0" eb="3">
       <t>ドクリツセイ</t>
@@ -1094,6 +1070,36 @@
     <t>独立</t>
     <rPh sb="0" eb="2">
       <t>ドクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的, 問題設定</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>モンダイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的、問題設定
+統計値の優位性を測る</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>モンダイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トウケイチ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ユウイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1197,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1212,16 +1218,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1238,14 +1238,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,11 +1532,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A907C30-7239-4F40-BD66-E57DAB273D18}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1548,13 +1551,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1566,10 +1569,10 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1578,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.4">
@@ -1679,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -1703,7 +1706,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="32.4">
@@ -1711,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="32.4">
@@ -1722,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="32.4">
@@ -1736,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="32.4">
@@ -1750,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="32.4">
@@ -1788,10 +1791,10 @@
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="32.4">
@@ -1805,10 +1808,10 @@
         <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="32.4">
@@ -1819,7 +1822,7 @@
         <v>23</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="32.4">
@@ -1830,7 +1833,7 @@
         <v>23</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1844,10 +1847,10 @@
         <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1861,10 +1864,10 @@
         <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1872,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1883,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1894,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1905,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1916,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1927,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1958,74 +1961,74 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" style="6" customWidth="1"/>
-    <col min="2" max="9" width="17" style="6" customWidth="1"/>
-    <col min="10" max="13" width="32.19921875" style="6" customWidth="1"/>
-    <col min="14" max="19" width="14.796875" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="20.59765625" style="5" customWidth="1"/>
+    <col min="2" max="9" width="17" style="5" customWidth="1"/>
+    <col min="10" max="13" width="32.19921875" style="5" customWidth="1"/>
+    <col min="14" max="19" width="14.796875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="32.4">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="32.4">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>20</v>
@@ -2033,41 +2036,41 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="32.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>82</v>
+      <c r="G3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="32.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>82</v>
+      <c r="I4" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>24</v>
@@ -2075,26 +2078,26 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="32.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>82</v>
+      <c r="I5" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>25</v>
@@ -2102,23 +2105,23 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="32.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>82</v>
+      <c r="I6" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>26</v>
@@ -2126,23 +2129,23 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="32.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>82</v>
+      <c r="I7" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>27</v>
@@ -2150,23 +2153,23 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="32.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>82</v>
+      <c r="I8" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>28</v>
@@ -2174,167 +2177,167 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="32.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="32.4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>82</v>
+      <c r="I10" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="32.4">
+      <c r="A11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="32.4">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:13" ht="32.4">
+      <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="32.4">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="32.4">
+      <c r="A14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="32.4">
+      <c r="A15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="32.4">
+      <c r="A16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="32.4">
+      <c r="A17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="32.4">
-      <c r="A12" s="7" t="s">
+      <c r="J17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="32.4">
+      <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="32.4">
-      <c r="A13" s="7" t="s">
+      <c r="J18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="32.4">
+      <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="32.4">
-      <c r="A14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="32.4">
-      <c r="A15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="32.4">
-      <c r="A16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="32.4">
-      <c r="A17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="32.4">
-      <c r="A18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="32.4">
-      <c r="A19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2352,81 +2355,81 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="20.59765625" style="6" customWidth="1"/>
-    <col min="3" max="7" width="17" style="6" customWidth="1"/>
-    <col min="8" max="10" width="32.19921875" style="6" customWidth="1"/>
-    <col min="11" max="15" width="14.796875" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="2" width="20.59765625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="17" style="5" customWidth="1"/>
+    <col min="8" max="10" width="32.19921875" style="5" customWidth="1"/>
+    <col min="11" max="15" width="14.796875" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="32.4">
+      <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="32.4">
-      <c r="A2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="9"/>
       <c r="H2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="32.4">
-      <c r="A3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="11"/>
+      <c r="A3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32.4">
-      <c r="A4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="32.4">
       <c r="I5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2447,63 +2450,63 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="20.59765625" style="6" customWidth="1"/>
-    <col min="3" max="7" width="17" style="6" customWidth="1"/>
-    <col min="8" max="10" width="32.19921875" style="6" customWidth="1"/>
-    <col min="11" max="16" width="14.796875" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="2" width="20.59765625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="17" style="5" customWidth="1"/>
+    <col min="8" max="10" width="32.19921875" style="5" customWidth="1"/>
+    <col min="11" max="16" width="14.796875" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="32.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2511,20 +2514,20 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="32.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -2533,20 +2536,20 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="32.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2554,20 +2557,20 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="32.4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2575,17 +2578,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="32.4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2593,17 +2596,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="48.6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2612,7 +2615,7 @@
     </row>
     <row r="8" spans="1:10" ht="48.6">
       <c r="H8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2633,60 +2636,60 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="20.59765625" style="6" customWidth="1"/>
-    <col min="3" max="7" width="17" style="6" customWidth="1"/>
-    <col min="8" max="10" width="32.19921875" style="6" customWidth="1"/>
-    <col min="11" max="16" width="14.796875" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="2" width="20.59765625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="17" style="5" customWidth="1"/>
+    <col min="8" max="10" width="32.19921875" style="5" customWidth="1"/>
+    <col min="11" max="16" width="14.796875" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="32.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2694,17 +2697,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="32.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -2712,17 +2715,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="32.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2730,17 +2733,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="32.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2748,17 +2751,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="32.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2783,75 +2786,75 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="20.59765625" style="6" customWidth="1"/>
-    <col min="3" max="7" width="17" style="6" customWidth="1"/>
-    <col min="8" max="10" width="32.19921875" style="6" customWidth="1"/>
-    <col min="11" max="15" width="14.796875" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="2" width="20.59765625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="17" style="5" customWidth="1"/>
+    <col min="8" max="10" width="32.19921875" style="5" customWidth="1"/>
+    <col min="11" max="15" width="14.796875" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="12"/>
+      <c r="A4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="10"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -2872,250 +2875,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98B6183-83D1-4CF4-97DD-F9302040C6C7}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="10.296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.09765625" style="6" customWidth="1"/>
-    <col min="3" max="12" width="11.69921875" style="6" customWidth="1"/>
-    <col min="13" max="14" width="34.09765625" style="6" customWidth="1"/>
-    <col min="15" max="17" width="19.3984375" style="6" customWidth="1"/>
-    <col min="18" max="20" width="14.796875" style="6" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="10.296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" style="5" customWidth="1"/>
+    <col min="3" max="12" width="11.69921875" style="5" customWidth="1"/>
+    <col min="13" max="14" width="34.09765625" style="5" customWidth="1"/>
+    <col min="15" max="17" width="19.3984375" style="5" customWidth="1"/>
+    <col min="18" max="20" width="14.796875" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="32.4">
+      <c r="A3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="M3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="32.4">
+      <c r="A4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="32.4">
-      <c r="A3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="M3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="32.4">
-      <c r="A4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="A5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>124</v>
+      <c r="F5" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>128</v>
+      <c r="M5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="12"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="16"/>
+      <c r="A10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="16"/>
+      <c r="A11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="16"/>
+      <c r="A12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="16"/>
+      <c r="A13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="16"/>
+      <c r="A15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="16"/>
+      <c r="A16" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="16"/>
+      <c r="A17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="16"/>
+      <c r="A18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
